--- a/504文档/招生/博士招生/博士报名汇总.xlsx
+++ b/504文档/招生/博士招生/博士报名汇总.xlsx
@@ -652,7 +652,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/504文档/招生/博士招生/博士报名汇总.xlsx
+++ b/504文档/招生/博士招生/博士报名汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>颜浩浩</t>
   </si>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>宋国彬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +656,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -914,7 +918,9 @@
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
